--- a/apps/features/backlog/android/connection/connection_ui_ test_cases/connection_ui.xlsx
+++ b/apps/features/backlog/android/connection/connection_ui_ test_cases/connection_ui.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\office\SymlexVPNTestCases\apps\features\backlog\android\connection\connection_ui_ test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0F810F-B2F3-4142-86CA-2C2DD234A48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C15B1C-B3F3-49CA-9E10-0FC799D87CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="134">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -546,6 +546,37 @@
   <si>
     <t>SYM-WIN-LOG-030</t>
   </si>
+  <si>
+    <t>check the ad ui and functionality for free users in the bottom of the connection page</t>
+  </si>
+  <si>
+    <t>1. goto the app store
+2. search and install the app
+3. open the app from the device home screen
+4. login with proper credentials
+5. connection page opened
+6. try o check the ad ui and functionality for free users in the bottom of the connection pagection page</t>
+  </si>
+  <si>
+    <t>should work perfectly when clicking &amp; should be as figma design and well visible</t>
+  </si>
+  <si>
+    <t>check the UI of app version in the bottom of the connection page</t>
+  </si>
+  <si>
+    <t>1. goto the app store
+2. search and install the app
+3. open the app from the device home screen
+4. login with proper credentials
+5. connection page opened
+6. try to check the UI of app version in the bottom of the connection page</t>
+  </si>
+  <si>
+    <t>SYM-WIN-LOG-031</t>
+  </si>
+  <si>
+    <t>SYM-WIN-LOG-032</t>
+  </si>
 </sst>
 </file>
 
@@ -776,6 +807,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -793,9 +827,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1445,7 +1476,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G32" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A3:G34" dataDxfId="7">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Test Case ID" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Prerequisites" dataDxfId="5"/>
@@ -1663,8 +1694,8 @@
   <dimension ref="A1:Z990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1680,15 +1711,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1710,13 +1741,13 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -2914,7 +2945,7 @@
       <c r="D32" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E32" s="26" t="s">
+      <c r="E32" s="20" t="s">
         <v>29</v>
       </c>
       <c r="F32" s="9" t="s">
@@ -2941,14 +2972,26 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+    <row r="33" spans="1:26" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G33" s="9"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -2969,14 +3012,26 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
+    <row r="34" spans="1:26" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" s="9"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -29763,7 +29818,7 @@
     <mergeCell ref="A1:G2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F32" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F34" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Pass,Fail,N/A"</formula1>
     </dataValidation>
   </dataValidations>
